--- a/data-raw/MN_Index_Class.xlsx
+++ b/data-raw/MN_Index_Class.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\RedLakesCalc\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5E66E91E-CA62-4E30-B778-B26AB8325E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD73EDE9-972E-4A83-AD8F-22DBFAFC742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="3" r:id="rId1"/>
@@ -21,17 +21,30 @@
   <definedNames>
     <definedName name="FileName">NOTES!$B$8</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Erik W. Leppo</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,12 +73,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Leppo, Erik</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="140">
   <si>
     <t>Index</t>
   </si>
@@ -508,12 +521,18 @@
   </si>
   <si>
     <t>warm/cool</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,7 +926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1037,17 +1056,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1098,7 +1106,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1124,18 +1132,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1179,7 +1181,7 @@
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Title 2" xfId="43"/>
+    <cellStyle name="Title 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -1201,12 +1203,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A15:C18" totalsRowShown="0">
-  <autoFilter ref="A15:C18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A15:C18" totalsRowShown="0">
+  <autoFilter ref="A15:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Worksheet"/>
-    <tableColumn id="2" name="Descriptions"/>
-    <tableColumn id="3" name="Link" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Worksheet"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descriptions"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1510,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
@@ -1628,12 +1630,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>""</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="91" orientation="portrait" r:id="rId2"/>
@@ -1649,25 +1651,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -1713,7 +1715,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -1736,8 +1738,12 @@
         <v>9</v>
       </c>
       <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -1760,8 +1766,12 @@
         <v>11</v>
       </c>
       <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -1786,8 +1796,12 @@
       <c r="H4" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -1812,8 +1826,12 @@
       <c r="H5" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -1836,8 +1854,12 @@
         <v>9</v>
       </c>
       <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -1860,8 +1882,12 @@
         <v>11</v>
       </c>
       <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -1884,8 +1910,12 @@
         <v>11</v>
       </c>
       <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -1906,8 +1936,12 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
@@ -1928,8 +1962,12 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
@@ -1950,8 +1988,12 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
@@ -1972,8 +2014,12 @@
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
@@ -1994,32 +2040,38 @@
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="17">
         <v>4</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>6</v>
       </c>
@@ -2042,52 +2094,68 @@
       <c r="H15" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="12">
-        <v>6</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="D16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="14">
+        <v>6</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="12">
-        <v>7</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="D17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="14">
+        <v>7</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
@@ -2108,8 +2176,12 @@
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
@@ -2130,8 +2202,12 @@
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
@@ -2152,8 +2228,12 @@
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
@@ -2174,395 +2254,460 @@
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I22" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I23" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="D24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="24" t="s">
+      <c r="D25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24" t="s">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="14" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I30" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I31" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I32" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="12" t="s">
         <v>111</v>
       </c>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I33" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="12" t="s">
         <v>111</v>
       </c>
+      <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" s="12"/>
+      <c r="I34" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="12" t="s">
         <v>111</v>
       </c>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="12" t="s">
         <v>111</v>
       </c>
+      <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="22" t="s">
+      <c r="D36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22" t="s">
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K36" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="L36" s="22"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="17" t="s">
         <v>91</v>
       </c>
+      <c r="B37" s="12"/>
       <c r="C37" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I37" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="12" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2570,29 +2715,29 @@
       <c r="A38" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21" t="s">
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="K38" s="21" t="s">
+      <c r="K38" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="L38" s="20" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2600,89 +2745,89 @@
       <c r="A39" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21" t="s">
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="K39" s="21" t="s">
+      <c r="K39" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L39" s="21"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21" t="s">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L40" s="21"/>
+      <c r="L40" s="20"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21" t="s">
+      <c r="F41" s="20"/>
+      <c r="G41" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21" t="s">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L41" s="21"/>
+      <c r="L41" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2691,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2937,7 +3082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
